--- a/Template/Шаблон для загрузки исходящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки исходящих писем в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirkov_ro\Documents\GitHub\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,9 +103,6 @@
     <t>Дата регистрации</t>
   </si>
   <si>
-    <t xml:space="preserve">№ </t>
-  </si>
-  <si>
     <t>не найден корреспондент</t>
   </si>
   <si>
@@ -131,12 +128,15 @@
   </si>
   <si>
     <t>Регистрация</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -729,30 +729,30 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.42578125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="5.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.3984375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>4</v>
@@ -779,25 +779,25 @@
         <v>2</v>
       </c>
       <c r="J1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="18"/>
@@ -814,7 +814,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="18"/>
@@ -831,7 +831,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="18"/>
@@ -848,7 +848,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -865,7 +865,7 @@
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
     </row>
   </sheetData>
@@ -885,14 +885,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -903,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>2</v>
       </c>
@@ -914,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>4</v>
       </c>
@@ -922,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>7</v>
       </c>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>14</v>
       </c>
@@ -944,17 +944,17 @@
         <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
